--- a/data/case1/5/Plm2_13.xlsx
+++ b/data/case1/5/Plm2_13.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.029917166615916813</v>
+        <v>-0.12926056049198564</v>
       </c>
       <c r="B1" s="0">
-        <v>0.029864182275801454</v>
+        <v>0.12910707082606621</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.016243224027743253</v>
+        <v>-0.082999324368310923</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.016452870924497986</v>
+        <v>0.082533622791968853</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.11938010709753044</v>
+        <v>0.079113465637554725</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.11972597226076687</v>
+        <v>-0.079378614891993493</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.16426077249582249</v>
+        <v>-0.20461053671048646</v>
       </c>
       <c r="B4" s="0">
-        <v>0.16361074750253835</v>
+        <v>0.203508194453633</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.15761074829040123</v>
+        <v>-0.19750819526314345</v>
       </c>
       <c r="B5" s="0">
-        <v>0.15631349520053739</v>
+        <v>0.1952776495935451</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.088109388770564845</v>
+        <v>-0.10938719146744047</v>
       </c>
       <c r="B6" s="0">
-        <v>0.087996701675319589</v>
+        <v>0.1092071166594577</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.067996702613957183</v>
+        <v>-0.089207117643365308</v>
       </c>
       <c r="B7" s="0">
-        <v>0.067744590421650486</v>
+        <v>0.088753656558134608</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.047744591367664846</v>
+        <v>-0.068753657553519254</v>
       </c>
       <c r="B8" s="0">
-        <v>0.047565492404421761</v>
+        <v>0.068361062918652848</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.041565493234065443</v>
+        <v>-0.062361063790210558</v>
       </c>
       <c r="B9" s="0">
-        <v>0.041425632462275708</v>
+        <v>0.0620268134949713</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.035425633299318804</v>
+        <v>-0.056026814380217616</v>
       </c>
       <c r="B10" s="0">
-        <v>0.035412890818427911</v>
+        <v>0.055983089476733028</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.030912891642493889</v>
+        <v>-0.051483090349066174</v>
       </c>
       <c r="B11" s="0">
-        <v>0.030888533331037138</v>
+        <v>0.051404215030348865</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.024888534169782872</v>
+        <v>-0.045404215920569424</v>
       </c>
       <c r="B12" s="0">
-        <v>0.024819718238560107</v>
+        <v>0.045153683172783232</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.018819719083329467</v>
+        <v>-0.039153684076731032</v>
       </c>
       <c r="B13" s="0">
-        <v>0.018806157782965016</v>
+        <v>0.039085762061716878</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0068061586826440035</v>
+        <v>-0.027085763028678933</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0068049202561661915</v>
+        <v>0.02705335577548329</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00080492110285668161</v>
+        <v>-0.021053356686577374</v>
       </c>
       <c r="B15" s="0">
-        <v>0.00080474124572749162</v>
+        <v>0.021027906923847262</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0051952579075407179</v>
+        <v>-0.015027907837892762</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.005199924710502124</v>
+        <v>0.015004110355869349</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090040182103692246</v>
+        <v>-0.009004111273759996</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999991271154656</v>
+        <v>0.0089999990517437567</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.036107407124415403</v>
+        <v>-0.036107747289221948</v>
       </c>
       <c r="B18" s="0">
-        <v>0.036096105677344781</v>
+        <v>0.036095983882642457</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.027096106489981509</v>
+        <v>-0.027095984704586407</v>
       </c>
       <c r="B19" s="0">
-        <v>0.027013257759087583</v>
+        <v>0.027013029824263679</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.01801325857831948</v>
+        <v>-0.018013030653115436</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004241888863959</v>
+        <v>0.018004186997368166</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090042427089587207</v>
+        <v>-0.0090041878272053566</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999991793678902</v>
+        <v>0.0089999991694398318</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093927236984574947</v>
+        <v>-0.093934217152774835</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093621328488900701</v>
+        <v>0.093626084992985525</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084621329306585835</v>
+        <v>-0.084626085829043518</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084124039028655062</v>
+        <v>0.084124969565106511</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042124040152967446</v>
+        <v>-0.042124970738264267</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999998870209332</v>
+        <v>0.041999998820732465</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.04939462313985743</v>
+        <v>-0.0798904589683751</v>
       </c>
       <c r="B25" s="0">
-        <v>0.049368422768861109</v>
+        <v>0.079812624263482235</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.043368423581309656</v>
+        <v>-0.073812625108391927</v>
       </c>
       <c r="B26" s="0">
-        <v>0.043336531470103523</v>
+        <v>0.073715863077918442</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.037336532284176549</v>
+        <v>-0.072805871519498133</v>
       </c>
       <c r="B27" s="0">
-        <v>0.037231921116517519</v>
+        <v>0.072405883253004344</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.031231921937015628</v>
+        <v>-0.06640588411642856</v>
       </c>
       <c r="B28" s="0">
-        <v>0.0311712610803907</v>
+        <v>0.066151414040763967</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.019171261957943386</v>
+        <v>-0.054151414973283352</v>
       </c>
       <c r="B29" s="0">
-        <v>0.01914617686782627</v>
+        <v>0.054049196513540565</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.060821773363343823</v>
+        <v>-0.034049197529342212</v>
       </c>
       <c r="B30" s="0">
-        <v>0.060556280504438398</v>
+        <v>0.033820579220295244</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.045556281420282119</v>
+        <v>-0.027017915712535867</v>
       </c>
       <c r="B31" s="0">
-        <v>0.045497757645994952</v>
+        <v>0.027000556983464818</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.024497758617168408</v>
+        <v>-0.0060005580171358375</v>
       </c>
       <c r="B32" s="0">
-        <v>0.024449315342615741</v>
+        <v>0.0059999991135226693</v>
       </c>
     </row>
   </sheetData>
